--- a/DungNTTH2009038_CP/BookStore_TestCases.xlsx
+++ b/DungNTTH2009038_CP/BookStore_TestCases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nocol\AppData\Local\Temp\MicrosoftEdgeDownloads\45440f94-adac-4b09-a078-66b9c34f1710\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2CBA5-7F72-4BC6-8FEF-58FF0AD13935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F1115-49B3-469B-8D0B-53D023FD0C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -45,166 +45,322 @@
     <t>Result</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>Verify user can view book list</t>
-  </si>
-  <si>
-    <t>1. Go to home page
-2. Observe list of books</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>System displays list of available books with title, price, and author</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>Verify user can view book details</t>
-  </si>
-  <si>
-    <t>1. Click on a book from list
-2. Observe book details page</t>
-  </si>
-  <si>
-    <t>Book ID = 101</t>
-  </si>
-  <si>
-    <t>Book detail page shows title, author, price, description, and Add to Cart button</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Verify user can add a book to cart</t>
-  </si>
-  <si>
-    <t>1. Click Add to Cart on book detail page
-2. Open cart</t>
-  </si>
-  <si>
-    <t>Book ID = 101, Quantity = 1</t>
-  </si>
-  <si>
-    <t>Book appears in cart with correct title, price, and quantity</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Verify user can view shopping cart</t>
-  </si>
-  <si>
-    <t>1. Add book to cart
-2. Click Cart icon</t>
-  </si>
-  <si>
-    <t>Book in cart</t>
-  </si>
-  <si>
-    <t>Cart displays all added books, total amount, and checkout button</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>Verify user can checkout and make payment</t>
-  </si>
-  <si>
-    <t>1. Go to cart
-2. Click Checkout
-3. Fill payment info
-4. Submit</t>
-  </si>
-  <si>
-    <t>Card number = 4111 1111 1111 1111</t>
-  </si>
-  <si>
-    <t>System processes payment and displays confirmation message</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>Verify user can view order history</t>
-  </si>
-  <si>
-    <t>1. Login as user
-2. Navigate to Order History page</t>
-  </si>
-  <si>
-    <t>User ID = U001</t>
-  </si>
-  <si>
-    <t>System displays list of previous orders with status and total</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>Verify user can register a new account</t>
+    <t>TC_PB1_01</t>
+  </si>
+  <si>
+    <t>TC_PB2_01</t>
+  </si>
+  <si>
+    <t>TC_PB2_02</t>
+  </si>
+  <si>
+    <t>TC_PB3_01</t>
+  </si>
+  <si>
+    <t>TC_PB4_01</t>
+  </si>
+  <si>
+    <t>TC_PB5_01</t>
+  </si>
+  <si>
+    <t>TC_PB6_01</t>
+  </si>
+  <si>
+    <t>TC_PB6_02</t>
+  </si>
+  <si>
+    <t>TC_PB7_01</t>
+  </si>
+  <si>
+    <t>TC_PB8_01</t>
+  </si>
+  <si>
+    <t>TC_PB9_01</t>
+  </si>
+  <si>
+    <t>TC_PB9_02</t>
+  </si>
+  <si>
+    <t>TC_PB10_01</t>
+  </si>
+  <si>
+    <t>TC_PB11_01</t>
+  </si>
+  <si>
+    <t>TC_PB11_02</t>
+  </si>
+  <si>
+    <t>TC_PB12_01</t>
+  </si>
+  <si>
+    <t>TC_PB13_01</t>
+  </si>
+  <si>
+    <t>TC_PB14_01</t>
+  </si>
+  <si>
+    <t>TC_PB15_01</t>
+  </si>
+  <si>
+    <t>TC_PB16_01</t>
+  </si>
+  <si>
+    <t>View list of books</t>
+  </si>
+  <si>
+    <t>Search for a book by title</t>
+  </si>
+  <si>
+    <t>Search for a book by author</t>
+  </si>
+  <si>
+    <t>View book details</t>
+  </si>
+  <si>
+    <t>Add a book to cart</t>
+  </si>
+  <si>
+    <t>View shopping cart</t>
+  </si>
+  <si>
+    <t>Checkout with valid payment</t>
+  </si>
+  <si>
+    <t>Checkout with invalid payment</t>
+  </si>
+  <si>
+    <t>Receive order confirmation</t>
+  </si>
+  <si>
+    <t>View order history</t>
+  </si>
+  <si>
+    <t>Register new user</t>
+  </si>
+  <si>
+    <t>Login existing user</t>
+  </si>
+  <si>
+    <t>Update user profile</t>
+  </si>
+  <si>
+    <t>Admin adds a book</t>
+  </si>
+  <si>
+    <t>Admin deletes a book</t>
+  </si>
+  <si>
+    <t>Admin updates order status</t>
+  </si>
+  <si>
+    <t>Admin manages user accounts</t>
+  </si>
+  <si>
+    <t>Generate sales report</t>
+  </si>
+  <si>
+    <t>Admin login authentication</t>
+  </si>
+  <si>
+    <t>Responsive design check</t>
+  </si>
+  <si>
+    <t>1. Open homepage
+2. Observe book list</t>
+  </si>
+  <si>
+    <t>1. Enter a book title in search bar
+2. Click Search</t>
+  </si>
+  <si>
+    <t>1. Enter author name
+2. Click Search</t>
+  </si>
+  <si>
+    <t>1. Click on a book title
+2. Observe details</t>
+  </si>
+  <si>
+    <t>1. Click 'Add to Cart' on a book
+2. Check cart</t>
+  </si>
+  <si>
+    <t>1. Click cart icon</t>
+  </si>
+  <si>
+    <t>1. Click checkout
+2. Enter valid payment info
+3. Confirm</t>
+  </si>
+  <si>
+    <t>1. Click checkout
+2. Enter invalid payment info
+3. Confirm</t>
+  </si>
+  <si>
+    <t>1. Complete checkout</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to Order History page</t>
   </si>
   <si>
     <t>1. Click Register
-2. Fill form and submit</t>
-  </si>
-  <si>
-    <t>Email = test@example.com, Password = 123456</t>
-  </si>
-  <si>
-    <t>Account created successfully and redirected to login page</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>Verify login functionality</t>
-  </si>
-  <si>
-    <t>1. Go to Login page
-2. Enter valid credentials
-3. Click Login</t>
-  </si>
-  <si>
-    <t>User is redirected to home page with welcome message</t>
-  </si>
-  <si>
-    <t>TC09</t>
-  </si>
-  <si>
-    <t>Verify admin can add a new book</t>
+2. Fill form
+3. Submit</t>
+  </si>
+  <si>
+    <t>1. Click Login
+2. Enter credentials
+3. Submit</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to Profile
+3. Edit details
+4. Save</t>
   </si>
   <si>
     <t>1. Login as admin
 2. Go to Manage Books
 3. Click Add Book
-4. Fill details and save</t>
-  </si>
-  <si>
-    <t>Title = 'Book A', Author = 'Author A', Price = 10.99</t>
-  </si>
-  <si>
-    <t>New book appears in book list with correct details</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>Verify search functionality for books</t>
-  </si>
-  <si>
-    <t>1. Enter book title in search bar
-2. Click search icon</t>
-  </si>
-  <si>
-    <t>Keyword = 'Harry Potter'</t>
-  </si>
-  <si>
-    <t>System displays all books with matching title or author</t>
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Login as admin
+2. Go to Manage Books
+3. Click Delete on a book</t>
+  </si>
+  <si>
+    <t>1. Login as admin
+2. Go to Manage Orders
+3. Change status
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Login as admin
+2. Go to Manage Users
+3. Activate/Deactivate a user</t>
+  </si>
+  <si>
+    <t>1. Login as admin
+2. Go to Reports
+3. Choose date range
+4. Click Generate</t>
+  </si>
+  <si>
+    <t>1. Go to Admin Login
+2. Enter credentials
+3. Submit</t>
+  </si>
+  <si>
+    <t>1. Open website on desktop
+2. Open website on mobile</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Book Title: Harry Potter</t>
+  </si>
+  <si>
+    <t>Author: J.K. Rowling</t>
+  </si>
+  <si>
+    <t>Book ID: 101</t>
+  </si>
+  <si>
+    <t>Card: 4111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>Card: 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>User: Registered</t>
+  </si>
+  <si>
+    <t>Email, Password</t>
+  </si>
+  <si>
+    <t>Name, Phone, Address</t>
+  </si>
+  <si>
+    <t>Book info</t>
+  </si>
+  <si>
+    <t>Book ID</t>
+  </si>
+  <si>
+    <t>Order ID, New Status</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>Admin username/password</t>
+  </si>
+  <si>
+    <t>List of available books is displayed</t>
+  </si>
+  <si>
+    <t>Books matching the title are displayed</t>
+  </si>
+  <si>
+    <t>Books by the author are displayed</t>
+  </si>
+  <si>
+    <t>Book details page is displayed with price, author, and description</t>
+  </si>
+  <si>
+    <t>Book appears in the cart</t>
+  </si>
+  <si>
+    <t>Cart page shows added items and total price</t>
+  </si>
+  <si>
+    <t>Payment successful and order placed</t>
+  </si>
+  <si>
+    <t>Payment fails with error message</t>
+  </si>
+  <si>
+    <t>Confirmation message or email is received</t>
+  </si>
+  <si>
+    <t>Past orders are displayed with status</t>
+  </si>
+  <si>
+    <t>New account created successfully</t>
+  </si>
+  <si>
+    <t>User logged in successfully</t>
+  </si>
+  <si>
+    <t>Profile information updated</t>
+  </si>
+  <si>
+    <t>Book added successfully</t>
+  </si>
+  <si>
+    <t>Book removed from list</t>
+  </si>
+  <si>
+    <t>Order status updated</t>
+  </si>
+  <si>
+    <t>User status changed successfully</t>
+  </si>
+  <si>
+    <t>Sales report generated successfully</t>
+  </si>
+  <si>
+    <t>Admin logged in successfully</t>
+  </si>
+  <si>
+    <t>Website layout adjusts properly for both</t>
   </si>
   <si>
     <t>Pass</t>
@@ -337,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +525,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,6 +577,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,20 +771,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="71.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,207 +812,402 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F100" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pass,Not Pass"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>